--- a/Каймов Каримов.xlsx
+++ b/Каймов Каримов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
   <si>
     <t>Браузер критерии</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>ВЫВОД:</t>
+  </si>
+  <si>
+    <t>wdawdawd</t>
   </si>
 </sst>
 </file>
@@ -710,21 +713,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -740,6 +728,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1125,10 +1128,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1293,10 +1296,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1349,10 +1352,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1370,10 +1373,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1391,10 +1394,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -1412,10 +1415,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1433,10 +1436,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1454,10 +1457,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
@@ -1475,10 +1478,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
@@ -1496,10 +1499,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1517,10 +1520,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
@@ -1538,10 +1541,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>105</v>
       </c>
@@ -1559,10 +1562,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
@@ -1580,10 +1583,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
@@ -1602,32 +1605,32 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1636,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,203 +1672,208 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Каймов Каримов.xlsx
+++ b/Каймов Каримов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="166">
   <si>
     <t>Браузер критерии</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>wdawdawd</t>
+  </si>
+  <si>
+    <t>dawdawd</t>
   </si>
 </sst>
 </file>
@@ -730,12 +733,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
@@ -743,6 +740,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1128,10 +1131,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1296,10 +1299,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1352,10 +1355,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1373,10 +1376,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1394,10 +1397,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -1415,10 +1418,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1436,10 +1439,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1457,10 +1460,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
@@ -1478,10 +1481,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
@@ -1499,10 +1502,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1520,10 +1523,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
@@ -1541,10 +1544,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>105</v>
       </c>
@@ -1562,10 +1565,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
@@ -1583,10 +1586,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
@@ -1605,32 +1608,32 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="B31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1642,7 +1645,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,9 +1873,12 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
